--- a/public/leads.xlsx
+++ b/public/leads.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\meradrivervinay\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,157 +19,262 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Father_name</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Zip</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Phone_number</t>
-  </si>
-  <si>
-    <t>Phone_number_one</t>
-  </si>
-  <si>
-    <t>Stream</t>
-  </si>
-  <si>
-    <t>School</t>
-  </si>
-  <si>
-    <t>Student_comment</t>
-  </si>
-  <si>
-    <t>Lead_status</t>
-  </si>
-  <si>
-    <t>Preferred_country_id</t>
-  </si>
-  <si>
-    <t>Interested_in</t>
-  </si>
-  <si>
-    <t>Course</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Intake</t>
-  </si>
-  <si>
-    <t>Intake_year</t>
-  </si>
-  <si>
-    <t>First_name</t>
-  </si>
-  <si>
-    <t>Middle_name</t>
-  </si>
-  <si>
-    <t>Last_name</t>
-  </si>
-  <si>
-    <t>Phone_number1</t>
-  </si>
-  <si>
-    <t>Dob</t>
-  </si>
-  <si>
-    <t>Interested</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Program_label</t>
-  </si>
-  <si>
-    <t>Status_study</t>
-  </si>
-  <si>
-    <t>Board</t>
-  </si>
-  <si>
-    <t>Intrested</t>
-  </si>
-  <si>
-    <t>Preferred_program_label</t>
-  </si>
-  <si>
-    <t>ranjeet</t>
-  </si>
-  <si>
-    <t>shyam</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>0987543</t>
-  </si>
-  <si>
-    <t>shyarm@gmail.com</t>
-  </si>
-  <si>
-    <t>strema</t>
-  </si>
-  <si>
-    <t>instie</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>acsdv</t>
-  </si>
-  <si>
-    <t>SMS Campaign</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>kumar</t>
-  </si>
-  <si>
-    <t>maurya</t>
-  </si>
-  <si>
-    <t>2024-05-17</t>
-  </si>
-  <si>
-    <t>completed</t>
-  </si>
-  <si>
-    <t>ICGSE</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>driver_type</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>father_name</t>
+  </si>
+  <si>
+    <t>mother_name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone_no</t>
+  </si>
+  <si>
+    <t>emergency_no</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>martial_status</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t>education_level</t>
+  </si>
+  <si>
+    <t>driver_training</t>
+  </si>
+  <si>
+    <t>driver_certificate</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>eye_vision</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>job_type</t>
+  </si>
+  <si>
+    <t>license_type</t>
+  </si>
+  <si>
+    <t>license_no</t>
+  </si>
+  <si>
+    <t>license_issue_date</t>
+  </si>
+  <si>
+    <t>license_exp_date</t>
+  </si>
+  <si>
+    <t>pulice_verification_status</t>
+  </si>
+  <si>
+    <t>pulice_verification_no</t>
+  </si>
+  <si>
+    <t>pulice_verification_document</t>
+  </si>
+  <si>
+    <t>total_exp</t>
+  </si>
+  <si>
+    <t>current_salary</t>
+  </si>
+  <si>
+    <t>expected_salary</t>
+  </si>
+  <si>
+    <t>document_type</t>
+  </si>
+  <si>
+    <t>doument_upload</t>
+  </si>
+  <si>
+    <t>bank_name</t>
+  </si>
+  <si>
+    <t>bank_account</t>
+  </si>
+  <si>
+    <t>ifsc_code</t>
+  </si>
+  <si>
+    <t>branch_name</t>
+  </si>
+  <si>
+    <t>upi_id</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>driver_category_status</t>
+  </si>
+  <si>
+    <t>Mr suraj</t>
+  </si>
+  <si>
+    <t>Miss sunita devi</t>
+  </si>
+  <si>
+    <t>sohan@gmail.com</t>
+  </si>
+  <si>
+    <t>hindu</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>5'2</t>
+  </si>
+  <si>
+    <t>Normal Vision</t>
+  </si>
+  <si>
+    <t>truck</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>noida</t>
+  </si>
+  <si>
+    <t>full_time</t>
+  </si>
+  <si>
+    <t>lmv</t>
+  </si>
+  <si>
+    <t>DL08 20150004567</t>
+  </si>
+  <si>
+    <t>PV123456</t>
+  </si>
+  <si>
+    <t>fresher</t>
+  </si>
+  <si>
+    <t>Indian bank</t>
+  </si>
+  <si>
+    <t>sohan.kumar@ybl</t>
+  </si>
+  <si>
+    <t>intrsted person</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>verified</t>
+  </si>
+  <si>
+    <t>car driver</t>
+  </si>
+  <si>
+    <t>vechicle_type</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>payment_mode</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>payment_reciept_date</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>IDBI000686</t>
+  </si>
+  <si>
+    <t>Indian Bank</t>
+  </si>
+  <si>
+    <t>gkp</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>unmarrid</t>
+  </si>
+  <si>
+    <t>uvinay@skylabstech.com</t>
+  </si>
+  <si>
+    <t>urmila</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -190,13 +295,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -255,7 +364,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,7 +399,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,209 +608,353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AW2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" customWidth="1"/>
-    <col min="16" max="16" width="16" customWidth="1"/>
-    <col min="17" max="17" width="17" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="21.140625" customWidth="1"/>
-    <col min="21" max="21" width="18.42578125" customWidth="1"/>
-    <col min="22" max="22" width="18.140625" customWidth="1"/>
-    <col min="24" max="24" width="21.7109375" customWidth="1"/>
-    <col min="25" max="25" width="18.7109375" customWidth="1"/>
-    <col min="27" max="27" width="18.42578125" customWidth="1"/>
-    <col min="28" max="28" width="27" customWidth="1"/>
-    <col min="30" max="30" width="16.85546875" customWidth="1"/>
-    <col min="31" max="31" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="33.1796875" customWidth="1"/>
+    <col min="4" max="5" width="30.36328125" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" customWidth="1"/>
+    <col min="7" max="7" width="29.1796875" customWidth="1"/>
+    <col min="8" max="8" width="28.36328125" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.90625" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="18.81640625" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" customWidth="1"/>
+    <col min="17" max="17" width="21.453125" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="17" customWidth="1"/>
+    <col min="20" max="20" width="16.81640625" customWidth="1"/>
+    <col min="21" max="21" width="16.7265625" customWidth="1"/>
+    <col min="22" max="22" width="21.1796875" customWidth="1"/>
+    <col min="23" max="23" width="18.1796875" customWidth="1"/>
+    <col min="25" max="25" width="21.7265625" customWidth="1"/>
+    <col min="26" max="26" width="18.7265625" customWidth="1"/>
+    <col min="28" max="29" width="18.453125" customWidth="1"/>
+    <col min="30" max="30" width="27" customWidth="1"/>
+    <col min="31" max="32" width="19.6328125" customWidth="1"/>
+    <col min="33" max="33" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.54296875" customWidth="1"/>
+    <col min="36" max="37" width="20.36328125" customWidth="1"/>
+    <col min="38" max="38" width="24.08984375" customWidth="1"/>
+    <col min="39" max="39" width="28.36328125" customWidth="1"/>
+    <col min="40" max="43" width="21.54296875" customWidth="1"/>
+    <col min="44" max="44" width="38.36328125" customWidth="1"/>
+    <col min="45" max="45" width="30.6328125" customWidth="1"/>
+    <col min="46" max="46" width="15.26953125" customWidth="1"/>
+    <col min="47" max="47" width="19.08984375" customWidth="1"/>
+    <col min="48" max="48" width="20.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>30</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2">
-        <v>3453453</v>
-      </c>
-      <c r="I2">
-        <v>646456</v>
-      </c>
-      <c r="J2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2">
-        <v>7</v>
-      </c>
-      <c r="N2">
+        <v>46</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="2">
+        <v>9889876761</v>
+      </c>
+      <c r="K2">
+        <v>988926924</v>
+      </c>
+      <c r="L2" s="2">
+        <v>36376</v>
+      </c>
+      <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2">
         <v>10</v>
       </c>
-      <c r="O2">
-        <v>34535</v>
-      </c>
-      <c r="P2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>40</v>
+      <c r="Q2">
+        <v>30</v>
       </c>
       <c r="R2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="S2">
-        <v>2025</v>
+        <v>60</v>
+      </c>
+      <c r="T2" t="s">
+        <v>51</v>
       </c>
       <c r="U2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="V2" t="s">
-        <v>43</v>
+        <v>53</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y2">
-        <v>2</v>
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z2">
+        <v>201301</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>56</v>
       </c>
       <c r="AB2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="AC2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE2">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>43831</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>47484</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>15000</v>
+      </c>
+      <c r="AL2">
+        <v>30000</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP2">
+        <v>500</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>45786</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS2">
+        <v>50284915234</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="AV2" r:id="rId2"/>
+    <hyperlink ref="I2" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>